--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,151 +58,151 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>worth</t>
   </si>
   <si>
     <t>ready</t>
@@ -748,10 +748,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1109,28 +1109,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1209677419354839</v>
+        <v>0.1027131782945736</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1155,32 +1155,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1027131782945736</v>
-      </c>
-      <c r="C10">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>53</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>463</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1206,7 +1182,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1232,7 +1208,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.9333333333333333</v>
@@ -1258,7 +1234,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.9166666666666666</v>
@@ -1284,7 +1260,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.9148936170212766</v>
@@ -1310,7 +1286,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.9145299145299145</v>
@@ -1336,7 +1312,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0.9090909090909091</v>
@@ -1362,7 +1338,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.8990825688073395</v>
@@ -1388,7 +1364,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.889763779527559</v>
@@ -1414,7 +1390,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.8888888888888888</v>
@@ -1440,7 +1416,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.8846153846153846</v>
@@ -1466,7 +1442,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.8666666666666667</v>
@@ -1492,7 +1468,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.8636363636363636</v>
@@ -1518,7 +1494,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
         <v>0.8529411764705882</v>
@@ -1544,7 +1520,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <v>0.85</v>
@@ -1570,7 +1546,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
         <v>0.8421052631578947</v>
@@ -1596,7 +1572,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>0.84</v>
@@ -1622,7 +1598,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>0.8214285714285714</v>
@@ -1648,7 +1624,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>0.8214285714285714</v>
@@ -1674,7 +1650,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>0.8141025641025641</v>
@@ -1700,7 +1676,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>0.7936507936507936</v>
@@ -1726,7 +1702,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>0.7878787878787878</v>
@@ -1752,33 +1728,33 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.762114537444934</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L32">
         <v>173</v>
       </c>
       <c r="M32">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>0.7222222222222222</v>
@@ -1804,7 +1780,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>0.7222222222222222</v>
@@ -1830,7 +1806,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>0.7164179104477612</v>
@@ -1856,7 +1832,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>0.7111111111111111</v>
@@ -1882,7 +1858,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>0.7111111111111111</v>
@@ -1908,7 +1884,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>0.7083333333333334</v>
@@ -1934,7 +1910,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
         <v>0.7073170731707317</v>
@@ -1960,7 +1936,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>0.7058823529411765</v>
@@ -1986,7 +1962,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>0.6956521739130435</v>
@@ -2012,7 +1988,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
         <v>0.6818181818181818</v>
@@ -2038,7 +2014,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>0.671875</v>
@@ -2064,7 +2040,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
         <v>0.6678321678321678</v>
@@ -2090,7 +2066,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45">
         <v>0.6666666666666666</v>
@@ -2116,28 +2092,28 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.6646153846153846</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="L46">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M46">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2145,25 +2121,25 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.6526315789473685</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L47">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>132</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2171,22 +2147,22 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.6521739130434783</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -2197,25 +2173,25 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.6363636363636364</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="N49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="10:17">
